--- a/data/long_bre/P23_5-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_5-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-34,28%</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-37,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; -1,63</t>
+          <t>-17,63; -2,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 4,65</t>
+          <t>-3,46; 4,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-56,79; -8,59</t>
+          <t>-4,36; 7,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 49,61</t>
+          <t>-6,3; 6,84</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-57,31; -12,27</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-23,24; 46,17</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-22,26; 52,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-27,5; 43,4</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-4,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 15,25</t>
+          <t>1,34; 17,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 5,19</t>
+          <t>-9,01; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 26,25</t>
+          <t>-9,69; 6,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 8,13</t>
+          <t>-6,62; 9,41</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 30,25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 6,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,69; 10,88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 17,6</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-9,52%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,86</t>
+          <t>-3,79; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 8,8</t>
+          <t>-5,91; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 44,19</t>
+          <t>-6,93; 5,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 62,93</t>
+          <t>-9,2; 4,52</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-25,23; 46,81</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-25,26; 52,67</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-31,15; 40,06</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-35,18; 26,66</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-31,53%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 66,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -4,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-30,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33,52%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 8,19</t>
+          <t>-5,1; 8,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 6,42</t>
+          <t>-11,85; -0,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 13,32</t>
+          <t>-2,1; 12,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 9,85</t>
+          <t>-8,59; 12,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-24,71; 60,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-49,46; -3,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 110,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-39,67; 113,41</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>-15,66</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-1,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-22,34%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 4,32</t>
+          <t>-8,95; 7,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 12,19</t>
+          <t>-8,27; 5,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 32,34</t>
+          <t>-6,78; 12,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,19; 122,77</t>
+          <t>-30,74; -0,68</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 11,99</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 8,36</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 22,78</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-39,97; -0,95</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,88%</t>
+          <t>13,48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>61,58%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-32,48%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>99,73%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 20,61</t>
+          <t>-7,34; 4,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 6,29</t>
+          <t>2,55; 12,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 241,93</t>
+          <t>-16,71; -0,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-62,47; 65,51</t>
+          <t>2,44; 24,86</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-35,62; 36,97</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16,44; 130,8</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-56,1; -0,05</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 271,67</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 12,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 10,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 22,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 17,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-21,53%</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>64,46%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-20,11%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-31,15%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 6,48</t>
+          <t>-2,32; 21,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 16,57</t>
+          <t>-17,02; 6,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-68,14; 54,82</t>
+          <t>-37,39; 7,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 174,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 238,28</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-65,02; 59,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-75,01; 59,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-5,81%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-5,02%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,58</t>
+          <t>-19,41; 14,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 0,79</t>
+          <t>-16,31; 11,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 15,69</t>
+          <t>-5,63; 35,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 5,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-27,81; 28,78</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,94; 19,3</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 92,43</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-27,64%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>45,87%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-17,57%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 8,25</t>
+          <t>-24,86; 6,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,18</t>
+          <t>-3,72; 17,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 13,53</t>
+          <t>-13,93; 7,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 3,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-67,62; 59,52</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-19,49; 170,76</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-62,28; 86,14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,62; 8,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 19,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,05; 65,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-12,29%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-16,27%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 1,96</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 0,61</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 5,79</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 6,03</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-31,21; 11,58</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-33,5; 4,38</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-19,13; 39,54</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-23,42; 35,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-3,41%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 8,97</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 2,23</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 7,76</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 5,35</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 14,83</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-9,28; 3,36</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 13,18</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 9,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-6,25%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-17,4%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 2,53</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 8,61</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 1,01</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 7,35</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-26,86; 18,91</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 64,81</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-36,03; 6,72</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-19,23; 44,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_5-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_5-Urba-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1292,7 +1292,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1376,7 +1376,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1656,7 +1656,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
